--- a/biology/Botanique/Sloetiopsis_usambarensis/Sloetiopsis_usambarensis.xlsx
+++ b/biology/Botanique/Sloetiopsis_usambarensis/Sloetiopsis_usambarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sloetiopsis usambarensis (syn. Neosloetiopsis kamerunensis Engl.) est une espèce de plantes à fleurs de la famille des Moraceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sloetiopsis usambarensis (syn. Neosloetiopsis kamerunensis Engl.) est une espèce de plantes à fleurs de la famille des Moraceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste de 5 mètres de haut peut devenir arbre en atteignant les 10 mètres[4]. Ce genre d’arbres est très proche du genre Neosloetiopsis Engl. qui pourrait en être considéré comme synonyme[5]. Ses fleurs sont de couleur blanche[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste de 5 mètres de haut peut devenir arbre en atteignant les 10 mètres. Ce genre d’arbres est très proche du genre Neosloetiopsis Engl. qui pourrait en être considéré comme synonyme. Ses fleurs sont de couleur blanche.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse le long des cours d’eau et dans les forêts de la Guinée jusqu'au Congo et du Kenya jusqu'en Tanzanie[7] et au Cameroun[3]. On peut en trouve sur les sables ou la terre comportant du calcaire et parfois dans les forêts des marécages[4] à des altitudes de 200 mètres[8]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse le long des cours d’eau et dans les forêts de la Guinée jusqu'au Congo et du Kenya jusqu'en Tanzanie et au Cameroun. On peut en trouve sur les sables ou la terre comportant du calcaire et parfois dans les forêts des marécages à des altitudes de 200 mètres. 
 </t>
         </is>
       </c>
